--- a/VersionRecords/Version 5.0.2.5 20161008/版本Bug和特性计划及评审表v5.0.2.5_架构组.xlsx
+++ b/VersionRecords/Version 5.0.2.5 20161008/版本Bug和特性计划及评审表v5.0.2.5_架构组.xlsx
@@ -114,15 +114,15 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>房源实时同步(BS)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>Bug</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>去除cat监控</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>房源实时同步(BS)、LTS、房东PC、房东APP、官网、租客APP、支付、微信服务窗</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -995,7 +995,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B11" sqref="B11"/>
+      <selection pane="bottomRight" activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1126,18 +1126,18 @@
       <c r="S2" s="13"/>
       <c r="T2" s="8"/>
     </row>
-    <row r="3" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:20" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A3" s="16">
         <v>2</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E3" s="10" t="s">
         <v>21</v>
